--- a/modelo_op_carpintaria1.xlsx
+++ b/modelo_op_carpintaria1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica Sampaio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0B7596-1B09-41D4-BE73-84D2AD7A9C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8275E7C-04B5-445B-AE88-3C0944F4F073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <t>QTD. PLAN.</t>
   </si>
   <si>
-    <t>ASSINATURA DO INSPETOR DA QUALIDADE</t>
+    <t>Carreta Madeira Fixa Basculante 4t RS de 1 Eixo - ALT 45 - MAD NAVAL - Molas, Freios e Pneus não Incluídos</t>
   </si>
   <si>
-    <t>DATA DE EXPEDIÇÃO DA CARGA</t>
+    <t>ASSINATURA DO INSPETOR DA QUALIDADE:</t>
   </si>
   <si>
-    <t>Carreta Madeira Fixa Basculante 4t RS de 1 Eixo - ALT 45 - MAD NAVAL - Molas, Freios e Pneus não Incluídos</t>
+    <t>DATA DE EXPEDIÇÃO:</t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="d/m"/>
     <numFmt numFmtId="165" formatCode="000000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,25 +282,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -323,6 +304,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -348,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -767,56 +762,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -844,11 +789,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -910,12 +892,6 @@
     <xf numFmtId="14" fontId="14" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -932,7 +908,7 @@
     <xf numFmtId="3" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -950,48 +926,153 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1007,123 +1088,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6258,56 +6232,56 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="G28" sqref="A28:XFD41"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="80.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="25" style="24" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="80.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25" style="22" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="22" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="79"/>
-      <c r="B1" s="82" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="88" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="89"/>
+      <c r="H1" s="46"/>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="80"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="89"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="3">
         <v>45323</v>
       </c>
@@ -6317,18 +6291,18 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="80"/>
-      <c r="B3" s="90" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="91" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="92"/>
+      <c r="H3" s="49"/>
       <c r="I3" s="3">
         <v>45404</v>
       </c>
@@ -6338,16 +6312,16 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="81"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="89"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="7">
         <v>44197</v>
       </c>
@@ -6355,31 +6329,31 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="8"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="55"/>
       <c r="J6" s="8"/>
       <c r="K6" s="5"/>
@@ -6388,19 +6362,19 @@
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="75"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="55"/>
       <c r="J7" s="5" t="s">
         <v>4</v>
@@ -6408,23 +6382,23 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="77" t="s">
-        <v>35</v>
+      <c r="A8" s="59" t="s">
+        <v>33</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="42" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="5" t="s">
         <v>4</v>
       </c>
@@ -6439,81 +6413,81 @@
       <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="76">
         <v>45299</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="53"/>
     </row>
-    <row r="10" spans="1:11" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+    <row r="10" spans="1:11" s="30" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="31" t="s">
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="33" t="s">
+    <row r="11" spans="1:11" s="30" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="63"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="30"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="26"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -6521,10 +6495,10 @@
       <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="26"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -6532,10 +6506,10 @@
       <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="26"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -6543,10 +6517,10 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -6554,10 +6528,10 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" s="15" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="26"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -6565,10 +6539,10 @@
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" s="15" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="26"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -6576,10 +6550,10 @@
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" s="15" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="26"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -6587,10 +6561,10 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" s="15" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="26"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -6598,10 +6572,10 @@
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" s="15" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="26"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -6609,10 +6583,10 @@
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" s="15" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="26"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -6620,10 +6594,10 @@
       <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" s="15" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="26"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -6631,10 +6605,10 @@
       <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" s="15" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="26"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -6642,10 +6616,10 @@
       <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" s="15" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="26"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="16"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -6653,10 +6627,10 @@
       <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" s="15" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="26"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -6664,10 +6638,10 @@
       <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" s="15" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="26"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -6675,10 +6649,10 @@
       <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" s="15" customFormat="1" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="26"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="16"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -6686,10 +6660,10 @@
       <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9" s="15" customFormat="1" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="26"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="16"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -6697,10 +6671,10 @@
       <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" s="15" customFormat="1" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="26"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -6708,10 +6682,10 @@
       <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:9" s="15" customFormat="1" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="29"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="16"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -6719,10 +6693,10 @@
       <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:9" s="15" customFormat="1" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="29"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -6730,10 +6704,10 @@
       <c r="I32" s="18"/>
     </row>
     <row r="33" spans="1:9" s="15" customFormat="1" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="29"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="16"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -6741,10 +6715,10 @@
       <c r="I33" s="18"/>
     </row>
     <row r="34" spans="1:9" s="15" customFormat="1" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="29"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="16"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -6752,10 +6726,10 @@
       <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:9" s="15" customFormat="1" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="29"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="16"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -6763,10 +6737,10 @@
       <c r="I35" s="18"/>
     </row>
     <row r="36" spans="1:9" s="15" customFormat="1" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="29"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="16"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -6774,10 +6748,10 @@
       <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" s="15" customFormat="1" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="29"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="16"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -6785,10 +6759,10 @@
       <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" s="15" customFormat="1" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="29"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="16"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -6796,10 +6770,10 @@
       <c r="I38" s="18"/>
     </row>
     <row r="39" spans="1:9" s="15" customFormat="1" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="29"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="16"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -6807,10 +6781,10 @@
       <c r="I39" s="18"/>
     </row>
     <row r="40" spans="1:9" s="15" customFormat="1" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="29"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -6818,10 +6792,10 @@
       <c r="I40" s="18"/>
     </row>
     <row r="41" spans="1:9" s="15" customFormat="1" ht="69.95" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="29"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -6829,140 +6803,128 @@
       <c r="I41" s="18"/>
     </row>
     <row r="42" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="50"/>
+      <c r="B42" s="83"/>
       <c r="C42" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53" t="s">
+      <c r="F42" s="85"/>
+      <c r="G42" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="54"/>
+      <c r="H42" s="42"/>
       <c r="I42" s="55"/>
     </row>
     <row r="43" spans="1:9" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="29"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="37"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="81"/>
     </row>
     <row r="44" spans="1:9" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="29"/>
+      <c r="A44" s="27"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="37"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="81"/>
     </row>
     <row r="45" spans="1:9" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="29"/>
+      <c r="A45" s="27"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="37"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="81"/>
     </row>
     <row r="46" spans="1:9" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="29"/>
+      <c r="A46" s="27"/>
       <c r="B46" s="16"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="37"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="81"/>
     </row>
     <row r="47" spans="1:9" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="29"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="16"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="37"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="81"/>
     </row>
     <row r="48" spans="1:9" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="29"/>
+      <c r="A48" s="27"/>
       <c r="B48" s="16"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="37"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="81"/>
     </row>
     <row r="49" spans="1:9" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="29"/>
+      <c r="A49" s="27"/>
       <c r="B49" s="16"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="37"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="81"/>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="38" t="s">
+    <row r="50" spans="1:9" s="90" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="39"/>
-      <c r="I50" s="22"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="88"/>
+      <c r="I50" s="89"/>
     </row>
+    <row r="51" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="40">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:H50"/>
+  <mergeCells count="39">
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G45:I45"/>
@@ -6976,12 +6938,24 @@
     <mergeCell ref="G43:I43"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="31" orientation="portrait" r:id="rId1"/>
